--- a/data/trans_dic/Q17F_D_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 27,73</t>
+          <t>9,04; 26,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 18,44</t>
+          <t>5,09; 19,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 19,3</t>
+          <t>5,56; 20,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,04; 33,51</t>
+          <t>17,43; 33,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 24,03</t>
+          <t>8,22; 24,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 17,6</t>
+          <t>4,9; 18,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 22,53</t>
+          <t>6,95; 23,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 26,57</t>
+          <t>13,49; 25,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,17; 22,97</t>
+          <t>10,47; 22,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 16,02</t>
+          <t>6,17; 15,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,59</t>
+          <t>7,44; 17,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 27,5</t>
+          <t>17,36; 28,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 23,16</t>
+          <t>6,24; 24,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 14,94</t>
+          <t>3,52; 15,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 19,25</t>
+          <t>5,2; 19,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 28,05</t>
+          <t>12,42; 28,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 21,21</t>
+          <t>6,63; 20,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 16,03</t>
+          <t>4,97; 17,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 29,93</t>
+          <t>12,35; 29,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 25,68</t>
+          <t>12,03; 24,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,95; 18,97</t>
+          <t>7,71; 19,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 13,71</t>
+          <t>5,12; 13,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,89; 21,41</t>
+          <t>10,92; 21,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 23,31</t>
+          <t>13,48; 23,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 19,1</t>
+          <t>7,38; 19,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 25,94</t>
+          <t>11,96; 25,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 11,14</t>
+          <t>2,64; 10,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 22,64</t>
+          <t>8,51; 22,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 23,29</t>
+          <t>4,99; 25,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 17,33</t>
+          <t>4,68; 16,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 20,33</t>
+          <t>3,55; 19,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 33,42</t>
+          <t>14,56; 34,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,94; 18,16</t>
+          <t>8,1; 18,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,89; 19,87</t>
+          <t>10,67; 20,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,66</t>
+          <t>4,05; 11,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 23,93</t>
+          <t>12,4; 24,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 16,08</t>
+          <t>7,84; 15,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 17,65</t>
+          <t>8,88; 17,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 18,74</t>
+          <t>9,27; 17,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 22,27</t>
+          <t>11,35; 21,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,16</t>
+          <t>6,58; 14,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 17,67</t>
+          <t>8,97; 18,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 15,97</t>
+          <t>7,85; 15,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 26,86</t>
+          <t>16,44; 27,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 14,05</t>
+          <t>8,14; 14,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,07; 16,28</t>
+          <t>10,13; 16,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,31; 15,55</t>
+          <t>9,53; 15,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,19; 22,85</t>
+          <t>14,95; 22,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 21,4</t>
+          <t>5,58; 20,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,2; 17,49</t>
+          <t>4,93; 16,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,1; 18,45</t>
+          <t>7,98; 18,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 27,61</t>
+          <t>11,78; 27,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 17,15</t>
+          <t>6,99; 17,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 11,62</t>
+          <t>4,67; 11,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 18,53</t>
+          <t>9,22; 18,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 20,77</t>
+          <t>6,18; 20,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 16,66</t>
+          <t>8,21; 16,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,6</t>
+          <t>6,05; 11,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 16,45</t>
+          <t>9,74; 16,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 20,02</t>
+          <t>7,73; 20,61</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,78</t>
+          <t>0,0; 31,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 30,91</t>
+          <t>2,78; 30,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 20,54</t>
+          <t>2,55; 18,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,71</t>
+          <t>0,0; 38,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,32; 12,53</t>
+          <t>6,25; 12,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,62; 16,12</t>
+          <t>9,08; 16,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 15,51</t>
+          <t>8,01; 15,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,99; 26,62</t>
+          <t>14,82; 26,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,28</t>
+          <t>6,1; 12,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,12; 16,07</t>
+          <t>9,17; 16,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 14,95</t>
+          <t>8,14; 14,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,18; 25,46</t>
+          <t>14,05; 25,75</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,4</t>
+          <t>9,86; 15,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,22; 15,27</t>
+          <t>10,08; 15,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,61; 13,21</t>
+          <t>8,78; 13,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,16</t>
+          <t>15,25; 21,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,85</t>
+          <t>8,83; 12,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,86; 12,51</t>
+          <t>8,75; 12,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,47; 14,75</t>
+          <t>10,56; 14,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 21,07</t>
+          <t>13,4; 20,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,81; 12,97</t>
+          <t>9,84; 12,93</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,96; 13,04</t>
+          <t>10,02; 13,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,36; 13,28</t>
+          <t>10,48; 13,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,35; 20,25</t>
+          <t>15,46; 20,16</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil IV de 2023: &gt;15 días)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13057</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8371</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10691</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28295</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10727</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6999</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11460</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19409</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23784</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15370</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22151</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47704</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7086; 20748</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3916; 15113</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5325; 19807</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19829; 38212</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6168; 18534</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3763; 13986</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6323; 20996</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13803; 26432</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16065; 35098</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9484; 24494</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13892; 32801</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37512; 60863</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7826</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7104</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9639</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16729</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10776</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8825</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>18188</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15262</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18602</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15930</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27827</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31991</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3660; 14497</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3164; 13729</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4772; 17837</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11005; 25000</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5877; 18480</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4710; 16393</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11198; 26409</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10503; 21214</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11358; 28248</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9455; 24452</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>19937; 39905</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23716; 41721</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>14233</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27320</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8800</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12207</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8225</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6106</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10849</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21066</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35545</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14906</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23056</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8455; 22321</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18187; 38874</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4016; 16439</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7095; 18824</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2734; 14215</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4110; 14781</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2120; 11490</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6870; 16073</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13724; 30757</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25590; 49398</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8571; 23794</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16192; 31457</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>29266</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35708</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36730</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32697</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21431</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30593</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28976</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38320</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>50697</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>66302</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>65706</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>71017</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20420; 39476</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25069; 50115</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25832; 49582</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23019; 44462</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13640; 30753</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21267; 42950</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20109; 40958</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>29407; 48432</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38072; 66577</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>52613; 83692</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50972; 83088</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>57051; 85656</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8103</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10458</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19393</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15681</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20694</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>21128</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>33396</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35141</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>28798</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>31586</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>52789</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>50822</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3866; 14165</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5192; 17388</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12549; 29067</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9987; 23256</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12216; 29781</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12654; 30682</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23181; 45655</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15802; 52741</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20042; 40171</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22759; 43365</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>39787; 67306</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>26318; 70160</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>32998</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>41112</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>40747</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>32537</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>34890</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>46030</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>43913</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>35038</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6650</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1018; 11197</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1039; 7511</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8248</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22994; 45980</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>30842; 55372</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>28358; 53189</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23961; 42833</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23685; 47020</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>34503; 61103</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>32153; 58806</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>25758; 47210</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>74377</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>93880</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>88417</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>108110</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>103460</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>116882</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>138873</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>151519</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>177837</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>210762</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>227291</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>259629</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>59373; 91973</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>74914; 112917</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>71659; 109319</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>90746; 125979</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>85481; 123824</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>96813; 138068</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>116484; 162377</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>111657; 173480</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>154589; 203129</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>185360; 241705</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>201105; 256702</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>220798; 287957</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/Q17F_D_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
